--- a/article/Supplement/Table_S3_field_exp_LEDs.xlsx
+++ b/article/Supplement/Table_S3_field_exp_LEDs.xlsx
@@ -76,7 +76,7 @@
     <t>Pallasea cancellus</t>
   </si>
   <si>
-    <t>Micruropus wohlii</t>
+    <t>Micruropus wahlii</t>
   </si>
   <si>
     <t>both subspecies (wohlii + platycercus)</t>
@@ -188,10 +188,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -230,61 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,22 +247,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -323,7 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +263,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,14 +284,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,8 +344,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,43 +383,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +455,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,37 +491,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,19 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,19 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,31 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +574,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,80 +669,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -679,106 +679,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,44 +808,23 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,9 +864,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -874,13 +871,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1234,7 +1225,7 @@
   <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2:D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1265,7 +1256,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -1285,10 +1276,9 @@
       <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>61</v>
       </c>
-      <c r="F2" s="16"/>
       <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1302,10 +1292,9 @@
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>12</v>
       </c>
-      <c r="F3" s="16"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
@@ -1317,10 +1306,9 @@
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>38</v>
       </c>
-      <c r="F4" s="16"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
@@ -1332,10 +1320,9 @@
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>10</v>
       </c>
-      <c r="F5" s="16"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
@@ -1347,10 +1334,9 @@
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="16"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
@@ -1362,10 +1348,9 @@
       <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>16</v>
       </c>
-      <c r="F7" s="16"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
@@ -1377,10 +1362,10 @@
       <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
@@ -1392,10 +1377,10 @@
       <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17"/>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
@@ -1407,10 +1392,10 @@
       <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
@@ -1422,10 +1407,10 @@
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17"/>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
@@ -1437,10 +1422,10 @@
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>6</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7">
@@ -1452,10 +1437,10 @@
       <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17"/>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
@@ -1467,10 +1452,10 @@
       <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17"/>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
@@ -1482,10 +1467,10 @@
       <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17"/>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
@@ -1497,10 +1482,10 @@
       <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17"/>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7">
@@ -1512,10 +1497,10 @@
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>17</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
@@ -1527,10 +1512,10 @@
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
@@ -1542,10 +1527,10 @@
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>5</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7">
@@ -1557,10 +1542,9 @@
       <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>14</v>
       </c>
-      <c r="F20" s="16"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7">
@@ -1572,10 +1556,9 @@
       <c r="D21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16"/>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
@@ -1587,10 +1570,10 @@
       <c r="D22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>117</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="10"/>
@@ -1604,10 +1587,10 @@
       <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>52</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="10"/>
@@ -1621,10 +1604,10 @@
       <c r="D24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>31</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="10"/>
@@ -1638,10 +1621,10 @@
       <c r="D25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>17</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="10"/>
@@ -1655,10 +1638,10 @@
       <c r="D26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17" t="s">
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="10"/>
@@ -1672,10 +1655,10 @@
       <c r="D27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>9</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7">
@@ -1687,10 +1670,10 @@
       <c r="D28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <v>7</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7">
@@ -1702,10 +1685,10 @@
       <c r="D29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>9</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7">
@@ -1717,10 +1700,10 @@
       <c r="D30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <v>12</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7">
@@ -1732,10 +1715,10 @@
       <c r="D31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17"/>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:10">
@@ -1747,12 +1730,12 @@
       <c r="D32" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="14">
         <v>13</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="10"/>
-      <c r="J32" s="15"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="6"/>
@@ -1763,12 +1746,12 @@
       <c r="D33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <v>9</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="10"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="6"/>
@@ -1779,12 +1762,12 @@
       <c r="D34" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>7</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="10"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="6"/>
@@ -1795,12 +1778,12 @@
       <c r="D35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>14</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="10"/>
-      <c r="J35" s="15"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="6"/>
@@ -1811,12 +1794,12 @@
       <c r="D36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="15">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17"/>
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15"/>
       <c r="G36" s="10"/>
-      <c r="J36" s="15"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6"/>
@@ -1827,10 +1810,9 @@
       <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="15">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16"/>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7">
@@ -1842,10 +1824,9 @@
       <c r="D38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="15">
-        <v>0</v>
-      </c>
-      <c r="F38" s="16"/>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7">
@@ -1857,10 +1838,9 @@
       <c r="D39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="15">
-        <v>0</v>
-      </c>
-      <c r="F39" s="16"/>
+      <c r="E39" s="14">
+        <v>0</v>
+      </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7">
@@ -1872,10 +1852,9 @@
       <c r="D40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="14">
         <v>2</v>
       </c>
-      <c r="F40" s="16"/>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7">
@@ -1887,10 +1866,9 @@
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="16"/>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7">
@@ -1902,10 +1880,9 @@
       <c r="D42" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>1</v>
       </c>
-      <c r="F42" s="16"/>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7">
@@ -1917,10 +1894,9 @@
       <c r="D43" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>2</v>
       </c>
-      <c r="F43" s="16"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7">
@@ -1932,10 +1908,9 @@
       <c r="D44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="15">
-        <v>0</v>
-      </c>
-      <c r="F44" s="16"/>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7">
@@ -1947,10 +1922,9 @@
       <c r="D45" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="15">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16"/>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7">
@@ -1962,10 +1936,9 @@
       <c r="D46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="15">
-        <v>0</v>
-      </c>
-      <c r="F46" s="16"/>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7">
@@ -1977,10 +1950,10 @@
       <c r="D47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="14">
         <v>5</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G47" s="10"/>
@@ -1994,10 +1967,9 @@
       <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>1</v>
       </c>
-      <c r="F48" s="16"/>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7">
@@ -2009,10 +1981,9 @@
       <c r="D49" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="15">
-        <v>0</v>
-      </c>
-      <c r="F49" s="16"/>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7">
@@ -2024,10 +1995,9 @@
       <c r="D50" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <v>1</v>
       </c>
-      <c r="F50" s="16"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7">
@@ -2039,10 +2009,9 @@
       <c r="D51" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <v>2</v>
       </c>
-      <c r="F51" s="16"/>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7">
@@ -2054,10 +2023,9 @@
       <c r="D52" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <v>1</v>
       </c>
-      <c r="F52" s="16"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7">
@@ -2069,10 +2037,9 @@
       <c r="D53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>1</v>
       </c>
-      <c r="F53" s="16"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7">
@@ -2084,10 +2051,9 @@
       <c r="D54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="15">
-        <v>0</v>
-      </c>
-      <c r="F54" s="16"/>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7">
@@ -2099,10 +2065,9 @@
       <c r="D55" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="15">
-        <v>0</v>
-      </c>
-      <c r="F55" s="16"/>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7">
@@ -2114,10 +2079,9 @@
       <c r="D56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="15">
-        <v>0</v>
-      </c>
-      <c r="F56" s="16"/>
+      <c r="E56" s="14">
+        <v>0</v>
+      </c>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7">
@@ -2130,13 +2094,13 @@
       <c r="C57" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="13">
-        <v>0</v>
-      </c>
-      <c r="F57" s="13"/>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="10" t="s">
         <v>30</v>
       </c>
@@ -2144,76 +2108,76 @@
     <row r="58" spans="1:7">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="2">
         <v>6</v>
       </c>
-      <c r="F58" s="13"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="2">
         <v>1</v>
       </c>
-      <c r="F59" s="13"/>
+      <c r="F59" s="2"/>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="2">
         <v>3</v>
       </c>
-      <c r="F60" s="13"/>
+      <c r="F60" s="2"/>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13"/>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-      <c r="F62" s="13"/>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7">
@@ -2222,13 +2186,13 @@
       <c r="C63" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="2">
         <v>17</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="10"/>
@@ -2236,16 +2200,16 @@
     <row r="64" spans="1:7">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="2">
         <v>30</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="10"/>
@@ -2253,16 +2217,16 @@
     <row r="65" spans="1:7">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="2">
         <v>20</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="10"/>
@@ -2270,16 +2234,16 @@
     <row r="66" spans="1:7">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="2">
         <v>48</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="10"/>
@@ -2287,16 +2251,16 @@
     <row r="67" spans="1:7">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="2">
         <v>2</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="10"/>
@@ -2304,16 +2268,16 @@
     <row r="68" spans="1:7">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="2">
         <v>15</v>
       </c>
-      <c r="F68" s="13"/>
+      <c r="F68" s="2"/>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7">
@@ -2322,88 +2286,88 @@
       <c r="C69" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="2">
         <v>7</v>
       </c>
-      <c r="F69" s="13"/>
+      <c r="F69" s="2"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="2">
         <v>6</v>
       </c>
-      <c r="F70" s="13"/>
+      <c r="F70" s="2"/>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="2">
         <v>20</v>
       </c>
-      <c r="F71" s="13"/>
+      <c r="F71" s="2"/>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="2">
         <v>17</v>
       </c>
-      <c r="F72" s="13"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E73" s="13">
-        <v>0</v>
-      </c>
-      <c r="F73" s="13"/>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2"/>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="2">
         <v>3</v>
       </c>
-      <c r="F74" s="13"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7">
@@ -2412,13 +2376,13 @@
       <c r="C75" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="2">
         <v>1</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G75" s="10"/>
@@ -2426,76 +2390,76 @@
     <row r="76" spans="1:7">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E76" s="13">
-        <v>0</v>
-      </c>
-      <c r="F76" s="13"/>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="13">
-        <v>0</v>
-      </c>
-      <c r="F77" s="13"/>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="13">
-        <v>0</v>
-      </c>
-      <c r="F78" s="13"/>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="13">
-        <v>0</v>
-      </c>
-      <c r="F79" s="13"/>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="13">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13"/>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2"/>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7">
@@ -2504,88 +2468,88 @@
       <c r="C81" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="13">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13"/>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2"/>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="2">
         <v>1</v>
       </c>
-      <c r="F82" s="13"/>
+      <c r="F82" s="2"/>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13"/>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2"/>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="13">
-        <v>0</v>
-      </c>
-      <c r="F84" s="13"/>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2"/>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="13">
-        <v>0</v>
-      </c>
-      <c r="F85" s="13"/>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="10"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="13">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13"/>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2"/>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7">
@@ -2594,88 +2558,88 @@
       <c r="C87" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="13">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13"/>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="2">
         <v>1</v>
       </c>
-      <c r="F88" s="13"/>
+      <c r="F88" s="2"/>
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="10"/>
       <c r="B89" s="11"/>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="13">
-        <v>0</v>
-      </c>
-      <c r="F89" s="13"/>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="10"/>
       <c r="B90" s="11"/>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="13">
-        <v>0</v>
-      </c>
-      <c r="F90" s="13"/>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="13">
-        <v>0</v>
-      </c>
-      <c r="F91" s="13"/>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E92" s="2">
         <v>34</v>
       </c>
-      <c r="F92" s="13"/>
+      <c r="F92" s="2"/>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7">
@@ -2684,88 +2648,88 @@
       <c r="C93" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="13">
-        <v>0</v>
-      </c>
-      <c r="F93" s="13"/>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2"/>
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="13">
-        <v>0</v>
-      </c>
-      <c r="F94" s="13"/>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2"/>
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E95" s="13">
-        <v>0</v>
-      </c>
-      <c r="F95" s="13"/>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2"/>
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="13">
-        <v>0</v>
-      </c>
-      <c r="F96" s="13"/>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2"/>
       <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="13">
-        <v>0</v>
-      </c>
-      <c r="F97" s="13"/>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2"/>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="10"/>
       <c r="B98" s="11"/>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="2">
         <v>12</v>
       </c>
-      <c r="F98" s="13"/>
+      <c r="F98" s="2"/>
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7">
@@ -2774,88 +2738,88 @@
       <c r="C99" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E99" s="13">
-        <v>0</v>
-      </c>
-      <c r="F99" s="13"/>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2"/>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D100" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E100" s="13">
-        <v>0</v>
-      </c>
-      <c r="F100" s="13"/>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2"/>
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="10"/>
       <c r="B101" s="11"/>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D101" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="13">
-        <v>0</v>
-      </c>
-      <c r="F101" s="13"/>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2"/>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E102" s="13">
-        <v>0</v>
-      </c>
-      <c r="F102" s="13"/>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2"/>
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E103" s="13">
-        <v>0</v>
-      </c>
-      <c r="F103" s="13"/>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2"/>
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="10"/>
       <c r="B104" s="11"/>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="13" t="s">
+      <c r="D104" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="13">
+      <c r="E104" s="2">
         <v>1</v>
       </c>
-      <c r="F104" s="13"/>
+      <c r="F104" s="2"/>
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7">
@@ -2871,10 +2835,9 @@
       <c r="D105" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="14">
         <v>61</v>
       </c>
-      <c r="F105" s="16"/>
       <c r="G105" s="10" t="s">
         <v>36</v>
       </c>
@@ -2882,76 +2845,72 @@
     <row r="106" spans="1:7">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="14">
         <v>12</v>
       </c>
-      <c r="F106" s="16"/>
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="10"/>
       <c r="B107" s="11"/>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="14">
         <v>38</v>
       </c>
-      <c r="F107" s="16"/>
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="10"/>
       <c r="B108" s="11"/>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="14">
         <v>10</v>
       </c>
-      <c r="F108" s="16"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="14">
         <v>1</v>
       </c>
-      <c r="F109" s="16"/>
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="13">
-        <v>0</v>
-      </c>
-      <c r="F110" s="13"/>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7">
@@ -2960,88 +2919,88 @@
       <c r="C111" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="2">
         <v>30</v>
       </c>
-      <c r="F111" s="13"/>
+      <c r="F111" s="2"/>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D112" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E112" s="13">
+      <c r="E112" s="2">
         <v>5</v>
       </c>
-      <c r="F112" s="13"/>
+      <c r="F112" s="2"/>
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="D113" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="2">
         <v>12</v>
       </c>
-      <c r="F113" s="13"/>
+      <c r="F113" s="2"/>
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="10"/>
       <c r="B114" s="11"/>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="D114" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="13">
+      <c r="E114" s="2">
         <v>23</v>
       </c>
-      <c r="F114" s="13"/>
+      <c r="F114" s="2"/>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="10"/>
       <c r="B115" s="11"/>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="D115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E115" s="13">
-        <v>0</v>
-      </c>
-      <c r="F115" s="13"/>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="10"/>
       <c r="B116" s="11"/>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="13">
+      <c r="E116" s="2">
         <v>94</v>
       </c>
-      <c r="F116" s="13"/>
+      <c r="F116" s="2"/>
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7">
@@ -3050,88 +3009,88 @@
       <c r="C117" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="D117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="2">
         <v>1</v>
       </c>
-      <c r="F117" s="13"/>
+      <c r="F117" s="2"/>
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="10"/>
       <c r="B118" s="11"/>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="13" t="s">
+      <c r="D118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="13">
-        <v>0</v>
-      </c>
-      <c r="F118" s="13"/>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="10"/>
       <c r="B119" s="11"/>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E119" s="13">
-        <v>0</v>
-      </c>
-      <c r="F119" s="13"/>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+      <c r="F119" s="2"/>
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="10"/>
       <c r="B120" s="11"/>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E120" s="13">
-        <v>0</v>
-      </c>
-      <c r="F120" s="13"/>
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+      <c r="F120" s="2"/>
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="10"/>
       <c r="B121" s="11"/>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="D121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E121" s="13">
-        <v>0</v>
-      </c>
-      <c r="F121" s="13"/>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="13" t="s">
+      <c r="D122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E122" s="13">
+      <c r="E122" s="2">
         <v>66</v>
       </c>
-      <c r="F122" s="13"/>
+      <c r="F122" s="2"/>
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7">
@@ -3140,88 +3099,88 @@
       <c r="C123" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D123" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="2">
         <v>2</v>
       </c>
-      <c r="F123" s="13"/>
+      <c r="F123" s="2"/>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="10"/>
       <c r="B124" s="11"/>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="D124" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E124" s="13">
-        <v>0</v>
-      </c>
-      <c r="F124" s="13"/>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2"/>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="10"/>
       <c r="B125" s="11"/>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="D125" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E125" s="13">
-        <v>0</v>
-      </c>
-      <c r="F125" s="13"/>
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+      <c r="F125" s="2"/>
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="10"/>
       <c r="B126" s="11"/>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D126" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E126" s="13">
-        <v>0</v>
-      </c>
-      <c r="F126" s="13"/>
+      <c r="E126" s="2">
+        <v>0</v>
+      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="10"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="10"/>
       <c r="B127" s="11"/>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="D127" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E127" s="13">
-        <v>0</v>
-      </c>
-      <c r="F127" s="13"/>
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+      <c r="F127" s="2"/>
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="10"/>
       <c r="B128" s="11"/>
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="D128" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E128" s="13">
-        <v>0</v>
-      </c>
-      <c r="F128" s="13"/>
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="1:7">
@@ -3230,88 +3189,88 @@
       <c r="C129" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="D129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E129" s="13">
-        <v>0</v>
-      </c>
-      <c r="F129" s="13"/>
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+      <c r="F129" s="2"/>
       <c r="G129" s="10"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="10"/>
       <c r="B130" s="11"/>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E130" s="13">
-        <v>0</v>
-      </c>
-      <c r="F130" s="13"/>
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+      <c r="F130" s="2"/>
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="10"/>
       <c r="B131" s="11"/>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E131" s="13">
-        <v>0</v>
-      </c>
-      <c r="F131" s="13"/>
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+      <c r="F131" s="2"/>
       <c r="G131" s="10"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="10"/>
       <c r="B132" s="11"/>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D132" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E132" s="13">
+      <c r="E132" s="2">
         <v>2</v>
       </c>
-      <c r="F132" s="13"/>
+      <c r="F132" s="2"/>
       <c r="G132" s="10"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="D133" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E133" s="13">
-        <v>0</v>
-      </c>
-      <c r="F133" s="13"/>
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+      <c r="F133" s="2"/>
       <c r="G133" s="10"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="10"/>
       <c r="B134" s="11"/>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="D134" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="13">
+      <c r="E134" s="2">
         <v>12</v>
       </c>
-      <c r="F134" s="13"/>
+      <c r="F134" s="2"/>
       <c r="G134" s="10"/>
     </row>
     <row r="135" spans="1:7">
@@ -3320,13 +3279,13 @@
       <c r="C135" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="D135" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E135" s="13">
+      <c r="E135" s="2">
         <v>117</v>
       </c>
-      <c r="F135" s="13" t="s">
+      <c r="F135" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G135" s="10"/>
@@ -3334,16 +3293,16 @@
     <row r="136" spans="1:7">
       <c r="A136" s="10"/>
       <c r="B136" s="11"/>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D136" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E136" s="13">
+      <c r="E136" s="2">
         <v>39</v>
       </c>
-      <c r="F136" s="13" t="s">
+      <c r="F136" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G136" s="10"/>
@@ -3351,16 +3310,16 @@
     <row r="137" spans="1:7">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D137" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="2">
         <v>127</v>
       </c>
-      <c r="F137" s="13" t="s">
+      <c r="F137" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G137" s="10"/>
@@ -3368,16 +3327,16 @@
     <row r="138" spans="1:7">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="D138" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E138" s="13">
+      <c r="E138" s="2">
         <v>121</v>
       </c>
-      <c r="F138" s="13" t="s">
+      <c r="F138" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G138" s="10"/>
@@ -3385,16 +3344,16 @@
     <row r="139" spans="1:7">
       <c r="A139" s="10"/>
       <c r="B139" s="11"/>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="D139" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E139" s="13">
+      <c r="E139" s="2">
         <v>2</v>
       </c>
-      <c r="F139" s="13" t="s">
+      <c r="F139" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G139" s="10"/>
@@ -3402,16 +3361,16 @@
     <row r="140" spans="1:7">
       <c r="A140" s="10"/>
       <c r="B140" s="11"/>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D140" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E140" s="13">
-        <v>0</v>
-      </c>
-      <c r="F140" s="13" t="s">
+      <c r="E140" s="2">
+        <v>0</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G140" s="10"/>
@@ -3422,88 +3381,88 @@
       <c r="C141" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="D141" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E141" s="13">
+      <c r="E141" s="2">
         <v>1</v>
       </c>
-      <c r="F141" s="13"/>
+      <c r="F141" s="2"/>
       <c r="G141" s="10"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="10"/>
       <c r="B142" s="11"/>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E142" s="13">
-        <v>0</v>
-      </c>
-      <c r="F142" s="13"/>
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+      <c r="F142" s="2"/>
       <c r="G142" s="10"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="10"/>
       <c r="B143" s="11"/>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="D143" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E143" s="13">
+      <c r="E143" s="2">
         <v>1</v>
       </c>
-      <c r="F143" s="13"/>
+      <c r="F143" s="2"/>
       <c r="G143" s="10"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="10"/>
       <c r="B144" s="11"/>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="D144" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E144" s="13">
+      <c r="E144" s="2">
         <v>1</v>
       </c>
-      <c r="F144" s="13"/>
+      <c r="F144" s="2"/>
       <c r="G144" s="10"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="10"/>
       <c r="B145" s="11"/>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="D145" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E145" s="13">
-        <v>0</v>
-      </c>
-      <c r="F145" s="13"/>
+      <c r="E145" s="2">
+        <v>0</v>
+      </c>
+      <c r="F145" s="2"/>
       <c r="G145" s="10"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="10"/>
       <c r="B146" s="11"/>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="D146" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E146" s="13">
-        <v>0</v>
-      </c>
-      <c r="F146" s="13"/>
+      <c r="E146" s="2">
+        <v>0</v>
+      </c>
+      <c r="F146" s="2"/>
       <c r="G146" s="10"/>
     </row>
     <row r="147" spans="1:7">
@@ -3519,90 +3478,85 @@
       <c r="D147" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E147" s="15">
+      <c r="E147" s="14">
         <v>1</v>
       </c>
-      <c r="F147" s="16"/>
-      <c r="G147" s="19" t="s">
+      <c r="G147" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E148" s="15">
-        <v>0</v>
-      </c>
-      <c r="F148" s="16"/>
-      <c r="G148" s="20"/>
+      <c r="E148" s="14">
+        <v>0</v>
+      </c>
+      <c r="G148" s="17"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E149" s="15">
+      <c r="E149" s="14">
         <v>1</v>
       </c>
-      <c r="F149" s="16"/>
-      <c r="G149" s="20"/>
+      <c r="G149" s="17"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="15">
-        <v>0</v>
-      </c>
-      <c r="F150" s="16"/>
-      <c r="G150" s="20"/>
+      <c r="E150" s="14">
+        <v>0</v>
+      </c>
+      <c r="G150" s="17"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E151" s="15">
-        <v>0</v>
-      </c>
-      <c r="F151" s="16"/>
-      <c r="G151" s="20"/>
+      <c r="E151" s="14">
+        <v>0</v>
+      </c>
+      <c r="G151" s="17"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E152" s="2">
         <v>13</v>
       </c>
-      <c r="F152" s="13" t="s">
+      <c r="F152" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G152" s="20"/>
+      <c r="G152" s="17"/>
     </row>
     <row r="153" ht="14.25" spans="1:7">
       <c r="A153" s="11"/>
@@ -3610,89 +3564,89 @@
       <c r="C153" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="2">
         <v>1</v>
       </c>
       <c r="F153"/>
-      <c r="G153" s="20"/>
+      <c r="G153" s="17"/>
     </row>
     <row r="154" ht="14.25" spans="1:7">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="13">
+      <c r="E154" s="2">
         <v>5</v>
       </c>
       <c r="F154"/>
-      <c r="G154" s="20"/>
+      <c r="G154" s="17"/>
     </row>
     <row r="155" ht="14.25" spans="1:7">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="13" t="s">
+      <c r="D155" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="13">
+      <c r="E155" s="2">
         <v>2</v>
       </c>
       <c r="F155"/>
-      <c r="G155" s="20"/>
+      <c r="G155" s="17"/>
     </row>
     <row r="156" ht="14.25" spans="1:7">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D156" s="13" t="s">
+      <c r="D156" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E156" s="13">
+      <c r="E156" s="2">
         <v>1</v>
       </c>
       <c r="F156"/>
-      <c r="G156" s="20"/>
+      <c r="G156" s="17"/>
     </row>
     <row r="157" ht="14.25" spans="1:7">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D157" s="13" t="s">
+      <c r="D157" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E157" s="13">
+      <c r="E157" s="2">
         <v>0</v>
       </c>
       <c r="F157"/>
-      <c r="G157" s="20"/>
+      <c r="G157" s="17"/>
     </row>
     <row r="158" ht="14.25" spans="1:7">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D158" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E158" s="2">
         <v>0</v>
       </c>
       <c r="F158"/>
-      <c r="G158" s="20"/>
+      <c r="G158" s="17"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="11"/>
@@ -3700,97 +3654,97 @@
       <c r="C159" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="D159" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E159" s="21">
+      <c r="E159" s="18">
         <v>1146</v>
       </c>
-      <c r="F159" s="13" t="s">
+      <c r="F159" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G159" s="20"/>
+      <c r="G159" s="17"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D160" s="13" t="s">
+      <c r="D160" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E160" s="21">
+      <c r="E160" s="18">
         <v>732</v>
       </c>
-      <c r="F160" s="13" t="s">
+      <c r="F160" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G160" s="20"/>
+      <c r="G160" s="17"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D161" s="13" t="s">
+      <c r="D161" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E161" s="21">
+      <c r="E161" s="18">
         <v>884</v>
       </c>
-      <c r="F161" s="13" t="s">
+      <c r="F161" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G161" s="20"/>
+      <c r="G161" s="17"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="D162" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E162" s="21">
+      <c r="E162" s="18">
         <v>436</v>
       </c>
-      <c r="F162" s="13" t="s">
+      <c r="F162" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G162" s="20"/>
+      <c r="G162" s="17"/>
     </row>
     <row r="163" ht="14.25" spans="1:7">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E163" s="13">
+      <c r="E163" s="2">
         <v>10</v>
       </c>
       <c r="F163"/>
-      <c r="G163" s="20"/>
+      <c r="G163" s="17"/>
     </row>
     <row r="164" ht="14.25" spans="1:7">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D164" s="13" t="s">
+      <c r="D164" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E164" s="13">
+      <c r="E164" s="2">
         <v>2</v>
       </c>
       <c r="F164"/>
-      <c r="G164" s="20"/>
+      <c r="G164" s="17"/>
     </row>
     <row r="165" ht="14.25" spans="1:7">
       <c r="A165" s="11"/>
@@ -3798,89 +3752,89 @@
       <c r="C165" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="13" t="s">
+      <c r="D165" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E165" s="13">
+      <c r="E165" s="2">
         <v>0</v>
       </c>
       <c r="F165"/>
-      <c r="G165" s="20"/>
+      <c r="G165" s="17"/>
     </row>
     <row r="166" ht="14.25" spans="1:7">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D166" s="13" t="s">
+      <c r="D166" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E166" s="13">
+      <c r="E166" s="2">
         <v>0</v>
       </c>
       <c r="F166"/>
-      <c r="G166" s="20"/>
+      <c r="G166" s="17"/>
     </row>
     <row r="167" ht="14.25" spans="1:7">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E167" s="13">
+      <c r="E167" s="2">
         <v>0</v>
       </c>
       <c r="F167"/>
-      <c r="G167" s="20"/>
+      <c r="G167" s="17"/>
     </row>
     <row r="168" ht="14.25" spans="1:7">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D168" s="13" t="s">
+      <c r="D168" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E168" s="13">
+      <c r="E168" s="2">
         <v>0</v>
       </c>
       <c r="F168"/>
-      <c r="G168" s="20"/>
+      <c r="G168" s="17"/>
     </row>
     <row r="169" ht="14.25" spans="1:7">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D169" s="13" t="s">
+      <c r="D169" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E169" s="13">
+      <c r="E169" s="2">
         <v>0</v>
       </c>
       <c r="F169"/>
-      <c r="G169" s="20"/>
+      <c r="G169" s="17"/>
     </row>
     <row r="170" ht="14.25" spans="1:7">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D170" s="13" t="s">
+      <c r="D170" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E170" s="13">
+      <c r="E170" s="2">
         <v>22</v>
       </c>
       <c r="F170"/>
-      <c r="G170" s="20"/>
+      <c r="G170" s="17"/>
     </row>
     <row r="171" ht="14.25" spans="1:7">
       <c r="A171" s="11"/>
@@ -3888,89 +3842,89 @@
       <c r="C171" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D171" s="13" t="s">
+      <c r="D171" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E171" s="13">
+      <c r="E171" s="2">
         <v>0</v>
       </c>
       <c r="F171"/>
-      <c r="G171" s="20"/>
+      <c r="G171" s="17"/>
     </row>
     <row r="172" ht="14.25" spans="1:7">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E172" s="13">
+      <c r="E172" s="2">
         <v>0</v>
       </c>
       <c r="F172"/>
-      <c r="G172" s="20"/>
+      <c r="G172" s="17"/>
     </row>
     <row r="173" ht="14.25" spans="1:7">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="13" t="s">
+      <c r="D173" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E173" s="13">
+      <c r="E173" s="2">
         <v>0</v>
       </c>
       <c r="F173"/>
-      <c r="G173" s="20"/>
+      <c r="G173" s="17"/>
     </row>
     <row r="174" ht="14.25" spans="1:7">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D174" s="13" t="s">
+      <c r="D174" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E174" s="13">
+      <c r="E174" s="2">
         <v>0</v>
       </c>
       <c r="F174"/>
-      <c r="G174" s="20"/>
+      <c r="G174" s="17"/>
     </row>
     <row r="175" ht="14.25" spans="1:7">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D175" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E175" s="13">
+      <c r="E175" s="2">
         <v>0</v>
       </c>
       <c r="F175"/>
-      <c r="G175" s="20"/>
+      <c r="G175" s="17"/>
     </row>
     <row r="176" ht="14.25" spans="1:7">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="D176" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E176" s="13">
+      <c r="E176" s="2">
         <v>2</v>
       </c>
       <c r="F176"/>
-      <c r="G176" s="20"/>
+      <c r="G176" s="17"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="11"/>
@@ -3978,86 +3932,86 @@
       <c r="C177" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D177" s="13" t="s">
+      <c r="D177" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="13">
-        <v>0</v>
-      </c>
-      <c r="G177" s="20"/>
+      <c r="E177" s="2">
+        <v>0</v>
+      </c>
+      <c r="G177" s="17"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="D178" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E178" s="13">
-        <v>0</v>
-      </c>
-      <c r="G178" s="20"/>
+      <c r="E178" s="2">
+        <v>0</v>
+      </c>
+      <c r="G178" s="17"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D179" s="13" t="s">
+      <c r="D179" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="13">
+      <c r="E179" s="2">
         <v>3</v>
       </c>
-      <c r="G179" s="20"/>
+      <c r="G179" s="17"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D180" s="13" t="s">
+      <c r="D180" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E180" s="13">
+      <c r="E180" s="2">
         <v>2</v>
       </c>
-      <c r="G180" s="20"/>
+      <c r="G180" s="17"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="13" t="s">
+      <c r="D181" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E181" s="13">
-        <v>0</v>
-      </c>
-      <c r="G181" s="20"/>
+      <c r="E181" s="2">
+        <v>0</v>
+      </c>
+      <c r="G181" s="17"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="D182" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E182" s="13">
-        <v>0</v>
-      </c>
-      <c r="G182" s="20"/>
+      <c r="E182" s="2">
+        <v>0</v>
+      </c>
+      <c r="G182" s="17"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="18" t="s">
+      <c r="A183" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -4066,160 +4020,160 @@
       <c r="C183" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D183" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E183" s="13">
+      <c r="E183" s="2">
         <v>1</v>
       </c>
-      <c r="F183" s="13"/>
-      <c r="G183" s="18" t="s">
+      <c r="F183" s="2"/>
+      <c r="G183" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="18"/>
+      <c r="A184" s="10"/>
       <c r="B184" s="11"/>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D184" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E184" s="13">
-        <v>0</v>
-      </c>
-      <c r="F184" s="13"/>
-      <c r="G184" s="18"/>
+      <c r="E184" s="2">
+        <v>0</v>
+      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" s="10"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="18"/>
+      <c r="A185" s="10"/>
       <c r="B185" s="11"/>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D185" s="13" t="s">
+      <c r="D185" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E185" s="13">
+      <c r="E185" s="2">
         <v>1</v>
       </c>
-      <c r="F185" s="13"/>
-      <c r="G185" s="18"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="10"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="18"/>
+      <c r="A186" s="10"/>
       <c r="B186" s="11"/>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D186" s="13" t="s">
+      <c r="D186" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E186" s="13">
-        <v>0</v>
-      </c>
-      <c r="F186" s="13"/>
-      <c r="G186" s="18"/>
+      <c r="E186" s="2">
+        <v>0</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186" s="10"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="18"/>
+      <c r="A187" s="10"/>
       <c r="B187" s="11"/>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D187" s="13" t="s">
+      <c r="D187" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E187" s="13">
-        <v>0</v>
-      </c>
-      <c r="F187" s="13"/>
-      <c r="G187" s="18"/>
+      <c r="E187" s="2">
+        <v>0</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" s="10"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="18"/>
+      <c r="A188" s="10"/>
       <c r="B188" s="11"/>
       <c r="C188" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="13" t="s">
+      <c r="D188" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E188" s="13">
+      <c r="E188" s="2">
         <v>151</v>
       </c>
-      <c r="F188" s="13" t="s">
+      <c r="F188" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G188" s="18"/>
+      <c r="G188" s="10"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="18"/>
+      <c r="A189" s="10"/>
       <c r="B189" s="11"/>
-      <c r="C189" s="13" t="s">
+      <c r="C189" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="D189" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E189" s="13">
+      <c r="E189" s="2">
         <v>353</v>
       </c>
-      <c r="F189" s="13" t="s">
+      <c r="F189" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G189" s="18"/>
+      <c r="G189" s="10"/>
     </row>
     <row r="190" ht="14.25" spans="1:7">
-      <c r="A190" s="18"/>
+      <c r="A190" s="10"/>
       <c r="B190" s="11"/>
-      <c r="C190" s="13" t="s">
+      <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D190" s="13" t="s">
+      <c r="D190" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E190" s="13">
+      <c r="E190" s="2">
         <v>182</v>
       </c>
       <c r="F190"/>
-      <c r="G190" s="18"/>
+      <c r="G190" s="10"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="18"/>
+      <c r="A191" s="10"/>
       <c r="B191" s="11"/>
-      <c r="C191" s="13" t="s">
+      <c r="C191" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D191" s="13" t="s">
+      <c r="D191" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E191" s="13">
+      <c r="E191" s="2">
         <v>290</v>
       </c>
-      <c r="F191" s="13" t="s">
+      <c r="F191" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G191" s="18"/>
+      <c r="G191" s="10"/>
     </row>
     <row r="192" ht="14.25" spans="1:7">
-      <c r="A192" s="18"/>
+      <c r="A192" s="10"/>
       <c r="B192" s="11"/>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D192" s="13" t="s">
+      <c r="D192" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E192" s="13">
+      <c r="E192" s="2">
         <v>2</v>
       </c>
       <c r="F192"/>
-      <c r="G192" s="18"/>
+      <c r="G192" s="10"/>
     </row>
     <row r="193" ht="14.25" spans="1:7">
-      <c r="A193" s="18"/>
+      <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="C193" s="12" t="s">
         <v>9</v>
@@ -4227,219 +4181,219 @@
       <c r="D193" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E193" s="13">
+      <c r="E193" s="2">
         <v>3</v>
       </c>
       <c r="F193"/>
-      <c r="G193" s="18"/>
+      <c r="G193" s="10"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="18"/>
+      <c r="A194" s="10"/>
       <c r="B194" s="11"/>
-      <c r="C194" s="13" t="s">
+      <c r="C194" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E194" s="13">
-        <v>0</v>
-      </c>
-      <c r="F194" s="13"/>
-      <c r="G194" s="18"/>
+      <c r="E194" s="2">
+        <v>0</v>
+      </c>
+      <c r="F194" s="2"/>
+      <c r="G194" s="10"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="18"/>
+      <c r="A195" s="10"/>
       <c r="B195" s="11"/>
-      <c r="C195" s="13" t="s">
+      <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E195" s="13">
-        <v>0</v>
-      </c>
-      <c r="F195" s="13"/>
-      <c r="G195" s="18"/>
+      <c r="E195" s="2">
+        <v>0</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" s="10"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="18"/>
+      <c r="A196" s="10"/>
       <c r="B196" s="11"/>
-      <c r="C196" s="13" t="s">
+      <c r="C196" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E196" s="13">
+      <c r="E196" s="2">
         <v>4</v>
       </c>
-      <c r="F196" s="13" t="s">
+      <c r="F196" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G196" s="18"/>
+      <c r="G196" s="10"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="18"/>
+      <c r="A197" s="10"/>
       <c r="B197" s="11"/>
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="13">
-        <v>0</v>
-      </c>
-      <c r="F197" s="13"/>
-      <c r="G197" s="18"/>
+      <c r="E197" s="2">
+        <v>0</v>
+      </c>
+      <c r="F197" s="2"/>
+      <c r="G197" s="10"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="22" t="s">
+      <c r="A198" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C198" s="23" t="s">
+      <c r="C198" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D198" s="24" t="s">
+      <c r="D198" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E198" s="27">
-        <v>0</v>
-      </c>
-      <c r="G198" s="28" t="s">
+      <c r="E198" s="24">
+        <v>0</v>
+      </c>
+      <c r="G198" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="22"/>
+      <c r="A199" s="19"/>
       <c r="B199" s="11"/>
-      <c r="C199" s="25" t="s">
+      <c r="C199" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D199" s="24" t="s">
+      <c r="D199" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E199" s="27">
-        <v>0</v>
-      </c>
-      <c r="G199" s="28"/>
+      <c r="E199" s="24">
+        <v>0</v>
+      </c>
+      <c r="G199" s="25"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="22"/>
+      <c r="A200" s="19"/>
       <c r="B200" s="11"/>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D200" s="24" t="s">
+      <c r="D200" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E200" s="27">
+      <c r="E200" s="24">
         <v>1</v>
       </c>
-      <c r="G200" s="28"/>
+      <c r="G200" s="25"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="22"/>
+      <c r="A201" s="19"/>
       <c r="B201" s="11"/>
-      <c r="C201" s="25" t="s">
+      <c r="C201" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D201" s="24" t="s">
+      <c r="D201" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E201" s="27">
-        <v>0</v>
-      </c>
-      <c r="G201" s="28"/>
+      <c r="E201" s="24">
+        <v>0</v>
+      </c>
+      <c r="G201" s="25"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="22"/>
+      <c r="A202" s="19"/>
       <c r="B202" s="11"/>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D202" s="24" t="s">
+      <c r="D202" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E202" s="27">
-        <v>0</v>
-      </c>
-      <c r="G202" s="28"/>
+      <c r="E202" s="24">
+        <v>0</v>
+      </c>
+      <c r="G202" s="25"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="22"/>
+      <c r="A203" s="19"/>
       <c r="B203" s="11"/>
-      <c r="C203" s="23" t="s">
+      <c r="C203" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D203" s="26" t="s">
+      <c r="D203" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E203" s="25">
-        <v>0</v>
-      </c>
-      <c r="G203" s="28"/>
+      <c r="E203" s="22">
+        <v>0</v>
+      </c>
+      <c r="G203" s="25"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="22"/>
+      <c r="A204" s="19"/>
       <c r="B204" s="11"/>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D204" s="26" t="s">
+      <c r="D204" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E204" s="25">
-        <v>0</v>
-      </c>
-      <c r="G204" s="28"/>
+      <c r="E204" s="22">
+        <v>0</v>
+      </c>
+      <c r="G204" s="25"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="22"/>
+      <c r="A205" s="19"/>
       <c r="B205" s="11"/>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D205" s="26" t="s">
+      <c r="D205" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E205" s="25">
+      <c r="E205" s="22">
         <v>1</v>
       </c>
-      <c r="G205" s="28"/>
+      <c r="G205" s="25"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="22"/>
+      <c r="A206" s="19"/>
       <c r="B206" s="11"/>
-      <c r="C206" s="25" t="s">
+      <c r="C206" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D206" s="26" t="s">
+      <c r="D206" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E206" s="25">
-        <v>0</v>
-      </c>
-      <c r="G206" s="28"/>
+      <c r="E206" s="22">
+        <v>0</v>
+      </c>
+      <c r="G206" s="25"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="22"/>
+      <c r="A207" s="19"/>
       <c r="B207" s="11"/>
-      <c r="C207" s="25" t="s">
+      <c r="C207" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D207" s="26" t="s">
+      <c r="D207" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E207" s="25">
-        <v>0</v>
-      </c>
-      <c r="G207" s="28"/>
+      <c r="E207" s="22">
+        <v>0</v>
+      </c>
+      <c r="G207" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G207">
